--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,41 @@
         <v>238600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>223000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,6 +43304,41 @@
         <v>223000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43339,6 +43339,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>151700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,41 @@
         <v>151700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>119300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43409,6 +43409,41 @@
         <v>119300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>155000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43444,6 +43444,41 @@
         <v>155000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>188400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43514,6 +43514,41 @@
         <v>188400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>54600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,41 @@
         <v>54600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>214100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43584,6 +43584,41 @@
         <v>214100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1027400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,41 @@
         <v>1027400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>5735900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,41 @@
         <v>5735900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>966300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,76 @@
         <v>966300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>914400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8360000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,76 @@
         <v>8360000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>69607300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>31002300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43829,6 +43829,41 @@
         <v>31002300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>17472900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43864,6 +43864,41 @@
         <v>17472900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>12396000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43899,6 +43899,41 @@
         <v>12396000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>10591100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43934,6 +43934,41 @@
         <v>10591100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>16222900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43969,6 +43969,76 @@
         <v>16222900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>11479500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>17847500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44039,6 +44039,41 @@
         <v>17847500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>4289200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44074,6 +44074,41 @@
         <v>4289200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>7620200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2186"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77184,6 +77184,41 @@
         <v>7620200</v>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>5554500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2187"/>
+  <dimension ref="A1:I2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77219,6 +77219,41 @@
         <v>5554500</v>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>2327000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2188"/>
+  <dimension ref="A1:I2189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77254,6 +77254,41 @@
         <v>2327000</v>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>3490900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2189"/>
+  <dimension ref="A1:I2190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77289,6 +77289,41 @@
         <v>3490900</v>
       </c>
     </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>1926800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2190"/>
+  <dimension ref="A1:I2191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77324,6 +77324,41 @@
         <v>1926800</v>
       </c>
     </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>3191100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2191"/>
+  <dimension ref="A1:I2192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77359,6 +77359,41 @@
         <v>3191100</v>
       </c>
     </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>2173600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2192"/>
+  <dimension ref="A1:I2193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77394,6 +77394,41 @@
         <v>2173600</v>
       </c>
     </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>2166100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2193"/>
+  <dimension ref="A1:I2194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77429,6 +77429,41 @@
         <v>2166100</v>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>1923400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2194"/>
+  <dimension ref="A1:I2195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77464,6 +77464,41 @@
         <v>1923400</v>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>1619500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77499,6 +77499,41 @@
         <v>1619500</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>5231100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77534,6 +77534,41 @@
         <v>5231100</v>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>789600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77569,6 +77569,41 @@
         <v>789600</v>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>707800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77604,6 +77604,41 @@
         <v>707800</v>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>2482500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2199"/>
+  <dimension ref="A1:I2200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77639,6 +77639,41 @@
         <v>2482500</v>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>4550100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7889.xlsx
+++ b/data/7889.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2200"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77674,6 +77674,41 @@
         <v>4550100</v>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>THRIVEN</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>1059200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
